--- a/RawData/optimization_of_acid_hydrolysis_of_olive_tree_pruning_residue_fermentation_with_candida_guilliermondii.xlsx
+++ b/RawData/optimization_of_acid_hydrolysis_of_olive_tree_pruning_residue_fermentation_with_candida_guilliermondii.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF733A-19F4-3E44-A69D-747F1E0EF22B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC51E71-56CC-664D-A559-01A173CBB478}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,11 +243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2305,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2319,36 +2319,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2423,7 +2423,7 @@
       <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.40783450075959177</v>
+        <v>0.30587587556969381</v>
       </c>
       <c r="E10">
         <v>0.42499999999999999</v>
@@ -2737,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="T10" s="2">
-        <v>17.97</v>
+        <v>9.31</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>15</v>
       </c>
       <c r="T11" s="2">
-        <v>9.31</v>
+        <v>10.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="T12" s="2">
-        <v>10.1</v>
+        <v>10.27</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>110</v>
@@ -2860,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>15</v>
       </c>
       <c r="T13" s="2">
-        <v>10.27</v>
+        <v>6.5</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>110</v>
@@ -2901,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="T14" s="2">
-        <v>6.5</v>
+        <v>12.04</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2942,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="T15" s="2">
-        <v>12.04</v>
+        <v>4.2</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>60</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2995,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="T16" s="2">
-        <v>4.2</v>
+        <v>16.29</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0.30587587556969381</v>
+        <v>0.20391725037979588</v>
       </c>
       <c r="E17">
         <v>0.42499999999999999</v>
@@ -3036,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="T17" s="2">
-        <v>16.29</v>
+        <v>5.58</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.20391725037979588</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E18">
         <v>0.42499999999999999</v>
@@ -3077,53 +3077,13 @@
         <v>15</v>
       </c>
       <c r="T18" s="2">
-        <v>5.58</v>
+        <v>10.28</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>60</v>
-      </c>
-      <c r="B19">
-        <v>110</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>0.40783450075959177</v>
-      </c>
-      <c r="E19">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="2">
-        <v>60</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>15</v>
-      </c>
-      <c r="T19" s="2">
-        <v>10.28</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4063,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
